--- a/medicine/Mort/Nécropole_nationale_de_Chauconin-Neufmontiers/Nécropole_nationale_de_Chauconin-Neufmontiers.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Chauconin-Neufmontiers/Nécropole_nationale_de_Chauconin-Neufmontiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Chauconin-Neufmontiers</t>
+          <t>Nécropole_nationale_de_Chauconin-Neufmontiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Chauconin-Neufmontiers, plus connue sous le nom de « Grande tombe de Villeroy »[2] est un ossuaire, situé sur le territoire de la commune de Chauconin-Neufmontiers en Seine-et-Marne, qui rassemble les dépouilles de 133 soldats français tués le 5 septembre 1914 et inhumés les 7 et 8 septembre in situ.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Chauconin-Neufmontiers, plus connue sous le nom de « Grande tombe de Villeroy » est un ossuaire, situé sur le territoire de la commune de Chauconin-Neufmontiers en Seine-et-Marne, qui rassemble les dépouilles de 133 soldats français tués le 5 septembre 1914 et inhumés les 7 et 8 septembre in situ.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Chauconin-Neufmontiers</t>
+          <t>Nécropole_nationale_de_Chauconin-Neufmontiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le premier jour de la bataille de la Marne
-Le 5 septembre 1914, les soldats de la 19e compagnie du 276e régiment d'infanterie arrivèrent à Villeroy et affrontèrent le feu ennemi. Parmi les officiers se trouvaient le capitaine Guérin, âgé de 32 ans et le lieutenant Charles Péguy, âgé de 41 ans qui fut tué à la tête de ses hommes, d'une balle en plein front.
-Édification des monuments
-En 1920, le monument qui avait été édifié sur les lieux mêmes du combat fut profané. Le monument actuel fut édifié en 1932 et la stèle à la mémoire de Charles Péguy fut érigée en 1936[3].
-En 1992, le monument à Charles Péguy fut déplacé sur le territoire de la commune de Villeroy, à l'endroit d'où partit l'attaque du 5e bataillon du 276e régiment d'infanterie. Chaque année, en septembre, se déroulent des cérémonies en souvenir des morts du 5 septembre 1914.
+          <t>Le premier jour de la bataille de la Marne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 septembre 1914, les soldats de la 19e compagnie du 276e régiment d'infanterie arrivèrent à Villeroy et affrontèrent le feu ennemi. Parmi les officiers se trouvaient le capitaine Guérin, âgé de 32 ans et le lieutenant Charles Péguy, âgé de 41 ans qui fut tué à la tête de ses hommes, d'une balle en plein front.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Chauconin-Neufmontiers</t>
+          <t>Nécropole_nationale_de_Chauconin-Neufmontiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +557,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Édification des monuments</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1920, le monument qui avait été édifié sur les lieux mêmes du combat fut profané. Le monument actuel fut édifié en 1932 et la stèle à la mémoire de Charles Péguy fut érigée en 1936.
+En 1992, le monument à Charles Péguy fut déplacé sur le territoire de la commune de Villeroy, à l'endroit d'où partit l'attaque du 5e bataillon du 276e régiment d'infanterie. Chaque année, en septembre, se déroulent des cérémonies en souvenir des morts du 5 septembre 1914.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Chauconin-Neufmontiers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Chauconin-Neufmontiers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le monument a été conçu par l’architecte Henry Faucheur et réalisé par le marbrier Lelu et le mosaïste Louis Barillet. Cette large stèle rectangulaire, arrondie au sommet a été construite en pierre et revêtue de mosaïque représentant des drapeaux français au sommet tandis que les noms des victimes sont inscrits au-dessous. 99 soldats ont été identifiés. En dessous est inscrite cette dédicace : 
-« Aux combattants des 231e, 246e, 276e R.I. et des 55e et 56e D.I.[4] »
-Dans l’ossuaire situé devant le monument, reposent également les corps de 32 soldats et 2 sergents non-identifiés[5].
+« Aux combattants des 231e, 246e, 276e R.I. et des 55e et 56e D.I. »
+Dans l’ossuaire situé devant le monument, reposent également les corps de 32 soldats et 2 sergents non-identifiés.
 Une stèle en forme de croix élancée marque l'emplacement où tomba Charles Péguy avec cette dédicace : 
-« En ces champs tomba Charles Péguy le 5 septembre 1914[6]. »
+« En ces champs tomba Charles Péguy le 5 septembre 1914. »
 </t>
         </is>
       </c>
